--- a/model_descriptions.xlsx
+++ b/model_descriptions.xlsx
@@ -535,8 +535,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D5936B3F7732444AFEF1606BFED34DC" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02d2d9e54d9c3013c14ae4642cfae977">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="704f474e-3c68-4b88-93ac-7c86e7119ccc" xmlns:ns3="25bf28c8-6ae6-42aa-a4b2-d83c9f61aeaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0149f2784e1514186586075c6b957dfc" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D5936B3F7732444AFEF1606BFED34DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe154985deb5b44c528eb32ff9b5c0f9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="704f474e-3c68-4b88-93ac-7c86e7119ccc" xmlns:ns3="25bf28c8-6ae6-42aa-a4b2-d83c9f61aeaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f52c420e74c674112c5be348efc809e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="704f474e-3c68-4b88-93ac-7c86e7119ccc"/>
     <xsd:import namespace="25bf28c8-6ae6-42aa-a4b2-d83c9f61aeaa"/>
@@ -559,6 +559,9 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -628,6 +631,18 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="360a6a1c-50a4-4ec0-87e3-f00760ffe76b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -659,6 +674,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ccd10a6d-abc8-424f-81e4-b9b81fce80c4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="25bf28c8-6ae6-42aa-a4b2-d83c9f61aeaa">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -772,6 +798,10 @@
     </SharedWithUsers>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="704f474e-3c68-4b88-93ac-7c86e7119ccc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="25bf28c8-6ae6-42aa-a4b2-d83c9f61aeaa" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -785,7 +815,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD22E3C3-2019-4E72-9BA5-B71AAECFF82E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFA8A902-948D-4AE8-9D93-537DE2BB5A66}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
